--- a/402/data/Balmer/hg.xlsx
+++ b/402/data/Balmer/hg.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="50">
   <si>
     <t>n</t>
   </si>
@@ -157,6 +157,18 @@
   <si>
     <t>dsin(beta)</t>
   </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>dalpha</t>
+  </si>
+  <si>
+    <t>sin(alpha)</t>
+  </si>
+  <si>
+    <t>dsin(alpha)</t>
+  </si>
 </sst>
 </file>
 
@@ -351,11 +363,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244587520"/>
-        <c:axId val="244609792"/>
+        <c:axId val="160949376"/>
+        <c:axId val="160950912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244587520"/>
+        <c:axId val="160949376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,12 +377,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244609792"/>
+        <c:crossAx val="160950912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244609792"/>
+        <c:axId val="160950912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -381,7 +393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244587520"/>
+        <c:crossAx val="160949376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -534,11 +546,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245581696"/>
-        <c:axId val="245583232"/>
+        <c:axId val="160786304"/>
+        <c:axId val="160787840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245581696"/>
+        <c:axId val="160786304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,12 +560,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245583232"/>
+        <c:crossAx val="160787840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245583232"/>
+        <c:axId val="160787840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,7 +576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245581696"/>
+        <c:crossAx val="160786304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -717,11 +729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245719808"/>
-        <c:axId val="245721344"/>
+        <c:axId val="161772288"/>
+        <c:axId val="161773824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245719808"/>
+        <c:axId val="161772288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,12 +743,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245721344"/>
+        <c:crossAx val="161773824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245721344"/>
+        <c:axId val="161773824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245719808"/>
+        <c:crossAx val="161772288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -900,11 +912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245747072"/>
-        <c:axId val="245757056"/>
+        <c:axId val="161828224"/>
+        <c:axId val="161842304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245747072"/>
+        <c:axId val="161828224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,12 +926,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245757056"/>
+        <c:crossAx val="161842304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245757056"/>
+        <c:axId val="161842304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245747072"/>
+        <c:crossAx val="161828224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -966,7 +978,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -980,7 +991,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'236_rc'!$N$4</c:f>
+              <c:f>'236_rc'!$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -999,13 +1010,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'236_rc'!$L$5:$L$24</c:f>
+              <c:f>'236_rc'!$P$5:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1044,7 +1054,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'236_rc'!$N$5:$N$24</c:f>
+              <c:f>'236_rc'!$R$5:$R$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1091,11 +1101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245782400"/>
-        <c:axId val="245783936"/>
+        <c:axId val="161892608"/>
+        <c:axId val="161898496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245782400"/>
+        <c:axId val="161892608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,12 +1115,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245783936"/>
+        <c:crossAx val="161898496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245783936"/>
+        <c:axId val="161898496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,14 +1131,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245782400"/>
+        <c:crossAx val="161892608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1293,13 +1302,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -4845,10 +4854,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:O24"/>
+  <dimension ref="C4:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4856,7 +4865,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -4873,31 +4882,43 @@
         <v>41</v>
       </c>
       <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>45</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>3</v>
       </c>
-      <c r="O4" t="s">
+      <c r="S4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -4914,39 +4935,55 @@
         <v>0.5</v>
       </c>
       <c r="H5">
+        <f>F5*PI()/180</f>
+        <v>0.79412480965741994</v>
+      </c>
+      <c r="I5">
+        <f>G5*PI()/180</f>
+        <v>8.7266462599716477E-3</v>
+      </c>
+      <c r="J5">
         <f>(F5-30)*PI()/180</f>
         <v>0.27052603405912107</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <f>SQRT(2)*G5*PI()/180</f>
         <v>1.2341341494884351E-2</v>
       </c>
-      <c r="J5">
-        <f>SIN(H5)</f>
+      <c r="L5">
+        <f t="shared" ref="L5:M14" si="0">SIN(H5)</f>
+        <v>0.71325044915418156</v>
+      </c>
+      <c r="M5">
+        <f>COS(H5)*I5</f>
+        <v>6.1165872098817731E-3</v>
+      </c>
+      <c r="N5">
+        <f>SIN(J5)</f>
         <v>0.26723837607825685</v>
       </c>
-      <c r="K5">
-        <f>COS(H5)*G5</f>
+      <c r="O5">
+        <f>COS(J5)*G5</f>
         <v>0.48181522660431148</v>
       </c>
-      <c r="L5" s="3">
-        <f>J5+SIN(F5/180*PI())</f>
+      <c r="P5" s="3">
+        <f>N5+L5</f>
         <v>0.98048882523243841</v>
       </c>
-      <c r="M5" s="3">
-        <f>SQRT(K5*K5+COS(F5*PI()/180)^2*(G5*PI()/180)^2)</f>
+      <c r="Q5" s="3">
+        <f>SQRT(O5*O5+M5*M5)</f>
         <v>0.48185404971511875</v>
       </c>
-      <c r="N5" s="3">
+      <c r="R5" s="3">
         <f>D5</f>
         <v>404.65600000000001</v>
       </c>
-      <c r="O5" s="3">
+      <c r="S5" s="3">
         <f>E5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2</v>
       </c>
@@ -4963,39 +5000,55 @@
         <v>0.5</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H14" si="0">(F6-30)*PI()/180</f>
+        <f t="shared" ref="H6:I14" si="1">F6*PI()/180</f>
+        <v>0.80285145591739149</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>8.7266462599716477E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J14" si="2">(F6-30)*PI()/180</f>
         <v>0.27925268031909273</v>
       </c>
-      <c r="I6">
-        <f t="shared" ref="I6:I14" si="1">SQRT(2)*G6*PI()/180</f>
+      <c r="K6">
+        <f t="shared" ref="K6:K14" si="3">SQRT(2)*G6*PI()/180</f>
         <v>1.2341341494884351E-2</v>
       </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J14" si="2">SIN(H6)</f>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.71933980033865108</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M14" si="4">COS(H6)*I6</f>
+        <v>6.0620378705240089E-3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N14" si="5">SIN(J6)</f>
         <v>0.27563735581699916</v>
       </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K14" si="3">COS(H6)*G6</f>
+      <c r="O6">
+        <f t="shared" ref="O6:O14" si="6">COS(J6)*G6</f>
         <v>0.48063084796915945</v>
       </c>
-      <c r="L6" s="3">
-        <f t="shared" ref="L6:L14" si="4">J6+SIN(F6/180*PI())</f>
+      <c r="P6" s="3">
+        <f t="shared" ref="P6:P14" si="7">N6+L6</f>
         <v>0.99497715615565019</v>
       </c>
-      <c r="M6" s="3">
-        <f t="shared" ref="M6:M14" si="5">SQRT(K6*K6+COS(F6*PI()/180)^2*(G6*PI()/180)^2)</f>
+      <c r="Q6" s="3">
+        <f t="shared" ref="Q6:Q14" si="8">SQRT(O6*O6+M6*M6)</f>
         <v>0.48066907568793826</v>
       </c>
-      <c r="N6" s="3">
-        <f t="shared" ref="N6:N14" si="6">D6</f>
+      <c r="R6" s="3">
+        <f t="shared" ref="R6:R14" si="9">D6</f>
         <v>407.78300000000002</v>
       </c>
-      <c r="O6" s="3">
-        <f t="shared" ref="O6:O14" si="7">E6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <f t="shared" ref="S6:S14" si="10">E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>3</v>
       </c>
@@ -5012,39 +5065,55 @@
         <v>0.5</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0.31764992386296803</v>
+        <f t="shared" si="1"/>
+        <v>0.84124869946126679</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
+        <v>8.7266462599716477E-3</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
+        <v>0.31764992386296803</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.74547599968286216</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>5.8165930886520485E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
         <v>0.31233491851223261</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
+      <c r="O7">
+        <f t="shared" si="6"/>
         <v>0.47498602576232624</v>
       </c>
-      <c r="L7" s="3">
-        <f t="shared" si="4"/>
+      <c r="P7" s="3">
+        <f t="shared" si="7"/>
         <v>1.0578109181950948</v>
       </c>
-      <c r="M7" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q7" s="3">
+        <f t="shared" si="8"/>
         <v>0.47502163890148014</v>
       </c>
-      <c r="N7" s="3">
-        <f t="shared" si="6"/>
+      <c r="R7" s="3">
+        <f t="shared" si="9"/>
         <v>433.92200000000003</v>
       </c>
-      <c r="O7" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="S7" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>4</v>
       </c>
@@ -5061,39 +5130,55 @@
         <v>0.5</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0.31939525311496225</v>
+        <f t="shared" si="1"/>
+        <v>0.84299402871326112</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
+        <v>8.7266462599716477E-3</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
+        <v>0.31939525311496225</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.74663818228539136</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>5.8052299864640913E-3</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
         <v>0.31399245596740488</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
+      <c r="O8">
+        <f t="shared" si="6"/>
         <v>0.47471273882095194</v>
       </c>
-      <c r="L8" s="3">
-        <f t="shared" si="4"/>
+      <c r="P8" s="3">
+        <f t="shared" si="7"/>
         <v>1.0606306382527961</v>
       </c>
-      <c r="M8" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q8" s="3">
+        <f t="shared" si="8"/>
         <v>0.47474823337647615</v>
       </c>
-      <c r="N8" s="3">
-        <f t="shared" si="6"/>
+      <c r="R8" s="3">
+        <f t="shared" si="9"/>
         <v>434.74900000000002</v>
       </c>
-      <c r="O8" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>5</v>
       </c>
@@ -5110,39 +5195,55 @@
         <v>0.5</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0.32288591161895097</v>
+        <f t="shared" si="1"/>
+        <v>0.84648468721724979</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
+        <v>8.7266462599716477E-3</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
+        <v>0.32288591161895097</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.74895572078900208</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>5.7824507655440983E-3</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
         <v>0.31730465640509214</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
+      <c r="O9">
+        <f t="shared" si="6"/>
         <v>0.47416182760309966</v>
       </c>
-      <c r="L9" s="3">
-        <f t="shared" si="4"/>
+      <c r="P9" s="3">
+        <f t="shared" si="7"/>
         <v>1.0662603771940942</v>
       </c>
-      <c r="M9" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q9" s="3">
+        <f t="shared" si="8"/>
         <v>0.47419708507409397</v>
       </c>
-      <c r="N9" s="3">
-        <f t="shared" si="6"/>
+      <c r="R9" s="3">
+        <f t="shared" si="9"/>
         <v>435.83300000000003</v>
       </c>
-      <c r="O9" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="S9" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>6</v>
       </c>
@@ -5159,39 +5260,55 @@
         <v>0.5</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0.40666171571467868</v>
+        <f t="shared" si="1"/>
+        <v>0.93026049131297761</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
+        <v>8.7266462599716477E-3</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
+        <v>0.40666171571467868</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.80177564424375392</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>5.2152632537189377E-3</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
         <v>0.39554550256296483</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
+      <c r="O10">
+        <f t="shared" si="6"/>
         <v>0.4592231906715436</v>
       </c>
-      <c r="L10" s="3">
-        <f t="shared" si="4"/>
+      <c r="P10" s="3">
+        <f t="shared" si="7"/>
         <v>1.1973211468067189</v>
       </c>
-      <c r="M10" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q10" s="3">
+        <f t="shared" si="8"/>
         <v>0.45925280382525535</v>
       </c>
-      <c r="N10" s="3">
-        <f t="shared" si="6"/>
+      <c r="R10" s="3">
+        <f t="shared" si="9"/>
         <v>546.07399999999996</v>
       </c>
-      <c r="O10" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>7</v>
       </c>
@@ -5208,39 +5325,55 @@
         <v>0.5</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0.49567350756638956</v>
+        <f t="shared" si="1"/>
+        <v>1.0192722831646883</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
+        <v>8.7266462599716477E-3</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
+        <v>0.49567350756638956</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.85172693414304756</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>4.5726396466116486E-3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
         <v>0.47562420907027519</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
+      <c r="O11">
+        <f t="shared" si="6"/>
         <v>0.43982428643330829</v>
       </c>
-      <c r="L11" s="3">
-        <f t="shared" si="4"/>
+      <c r="P11" s="3">
+        <f t="shared" si="7"/>
         <v>1.3273511432133227</v>
       </c>
-      <c r="M11" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q11" s="3">
+        <f t="shared" si="8"/>
         <v>0.43984805554862533</v>
       </c>
-      <c r="N11" s="3">
-        <f t="shared" si="6"/>
+      <c r="R11" s="3">
+        <f t="shared" si="9"/>
         <v>578.01300000000003</v>
       </c>
-      <c r="O11" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="S11" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>8</v>
       </c>
@@ -5257,39 +5390,55 @@
         <v>0.5</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0.5497787143782138</v>
+        <f t="shared" si="1"/>
+        <v>1.0733774899765127</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
+        <v>8.7266462599716477E-3</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
+        <v>0.5497787143782138</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0.87881711266196538</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>4.1639957106322199E-3</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
         <v>0.5224985647159488</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
+      <c r="O12">
+        <f t="shared" si="6"/>
         <v>0.42632008217704609</v>
       </c>
-      <c r="L12" s="3">
-        <f t="shared" si="4"/>
+      <c r="P12" s="3">
+        <f t="shared" si="7"/>
         <v>1.4013156773779141</v>
       </c>
-      <c r="M12" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q12" s="3">
+        <f t="shared" si="8"/>
         <v>0.42634041718762894</v>
       </c>
-      <c r="N12" s="3">
-        <f t="shared" si="6"/>
+      <c r="R12" s="3">
+        <f t="shared" si="9"/>
         <v>671.64300000000003</v>
       </c>
-      <c r="O12" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="S12" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>8</v>
       </c>
@@ -5306,39 +5455,55 @@
         <v>0.5</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0.55501470213419679</v>
+        <f t="shared" si="1"/>
+        <v>1.0786134777324956</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
+        <v>8.7266462599716477E-3</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
+        <v>0.55501470213419679</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0.88130345206499217</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>4.1237833648912724E-3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
         <v>0.52695579549667759</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
+      <c r="O13">
+        <f t="shared" si="6"/>
         <v>0.42494634649343199</v>
       </c>
-      <c r="L13" s="3">
-        <f t="shared" si="4"/>
+      <c r="P13" s="3">
+        <f t="shared" si="7"/>
         <v>1.4082592475616698</v>
       </c>
-      <c r="M13" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q13" s="3">
+        <f t="shared" si="8"/>
         <v>0.42496635512397513</v>
       </c>
-      <c r="N13" s="3">
-        <f t="shared" si="6"/>
+      <c r="R13" s="3">
+        <f t="shared" si="9"/>
         <v>690.75199999999995</v>
       </c>
-      <c r="O13" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="S13" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>9</v>
       </c>
@@ -5355,107 +5520,123 @@
         <v>0.5</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0.28274333882308145</v>
+        <f t="shared" si="1"/>
+        <v>0.80634211442138026</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>1.2341341494884351E-2</v>
+        <v>8.7266462599716477E-3</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
+        <v>0.28274333882308145</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>1.2341341494884351E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.72176022809836216</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>6.0400886396210912E-3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
         <v>0.27899110603922933</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
+      <c r="O14">
+        <f t="shared" si="6"/>
         <v>0.48014684283847153</v>
       </c>
-      <c r="L14" s="3">
-        <f t="shared" si="4"/>
+      <c r="P14" s="3">
+        <f t="shared" si="7"/>
         <v>1.0007513341375915</v>
       </c>
-      <c r="M14" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q14" s="3">
+        <f t="shared" si="8"/>
         <v>0.48018483249528648</v>
       </c>
-      <c r="N14" s="3">
-        <f t="shared" si="6"/>
+      <c r="R14" s="3">
+        <f t="shared" si="9"/>
         <v>410.80500000000001</v>
       </c>
-      <c r="O14" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="S14" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/402/data/Balmer/hg.xlsx
+++ b/402/data/Balmer/hg.xlsx
@@ -363,11 +363,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160949376"/>
-        <c:axId val="160950912"/>
+        <c:axId val="244390912"/>
+        <c:axId val="244421376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160949376"/>
+        <c:axId val="244390912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -377,12 +377,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160950912"/>
+        <c:crossAx val="244421376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160950912"/>
+        <c:axId val="244421376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,7 +393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160949376"/>
+        <c:crossAx val="244390912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -546,11 +546,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160786304"/>
-        <c:axId val="160787840"/>
+        <c:axId val="245782400"/>
+        <c:axId val="245783936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160786304"/>
+        <c:axId val="245782400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,12 +560,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160787840"/>
+        <c:crossAx val="245783936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160787840"/>
+        <c:axId val="245783936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,7 +576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160786304"/>
+        <c:crossAx val="245782400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -729,11 +729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161772288"/>
-        <c:axId val="161773824"/>
+        <c:axId val="245461760"/>
+        <c:axId val="245463296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161772288"/>
+        <c:axId val="245461760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,12 +743,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161773824"/>
+        <c:crossAx val="245463296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161773824"/>
+        <c:axId val="245463296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,7 +759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161772288"/>
+        <c:crossAx val="245461760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -912,11 +912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161828224"/>
-        <c:axId val="161842304"/>
+        <c:axId val="245484928"/>
+        <c:axId val="245372032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161828224"/>
+        <c:axId val="245484928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,12 +926,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161842304"/>
+        <c:crossAx val="245372032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161842304"/>
+        <c:axId val="245372032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161828224"/>
+        <c:crossAx val="245484928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -978,6 +978,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1010,6 +1011,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1101,11 +1103,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161892608"/>
-        <c:axId val="161898496"/>
+        <c:axId val="245520640"/>
+        <c:axId val="245522432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161892608"/>
+        <c:axId val="245520640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,12 +1117,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161898496"/>
+        <c:crossAx val="245522432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161898496"/>
+        <c:axId val="245522432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,13 +1133,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161892608"/>
+        <c:crossAx val="245520640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4856,8 +4859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4951,7 +4954,7 @@
         <v>1.2341341494884351E-2</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:M14" si="0">SIN(H5)</f>
+        <f t="shared" ref="L5:L14" si="0">SIN(H5)</f>
         <v>0.71325044915418156</v>
       </c>
       <c r="M5">
@@ -4963,8 +4966,8 @@
         <v>0.26723837607825685</v>
       </c>
       <c r="O5">
-        <f>COS(J5)*G5</f>
-        <v>0.48181522660431148</v>
+        <f>COS(J5)*K5</f>
+        <v>1.1892492497917791E-2</v>
       </c>
       <c r="P5" s="3">
         <f>N5+L5</f>
@@ -4972,7 +4975,7 @@
       </c>
       <c r="Q5" s="3">
         <f>SQRT(O5*O5+M5*M5)</f>
-        <v>0.48185404971511875</v>
+        <v>1.3373257527959306E-2</v>
       </c>
       <c r="R5" s="3">
         <f>D5</f>
@@ -5028,8 +5031,8 @@
         <v>0.27563735581699916</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O14" si="6">COS(J6)*G6</f>
-        <v>0.48063084796915945</v>
+        <f t="shared" ref="O6:O14" si="6">COS(J6)*K6</f>
+        <v>1.1863258855526479E-2</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" ref="P6:P14" si="7">N6+L6</f>
@@ -5037,7 +5040,7 @@
       </c>
       <c r="Q6" s="3">
         <f t="shared" ref="Q6:Q14" si="8">SQRT(O6*O6+M6*M6)</f>
-        <v>0.48066907568793826</v>
+        <v>1.3322357667353579E-2</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" ref="R6:R14" si="9">D6</f>
@@ -5094,7 +5097,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="6"/>
-        <v>0.47498602576232624</v>
+        <v>1.1723929498461608E-2</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="7"/>
@@ -5102,7 +5105,7 @@
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="8"/>
-        <v>0.47502163890148014</v>
+        <v>1.308752375523548E-2</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="9"/>
@@ -5159,7 +5162,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="6"/>
-        <v>0.47471273882095194</v>
+        <v>1.1717184043522424E-2</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="7"/>
@@ -5167,7 +5170,7 @@
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="8"/>
-        <v>0.47474823337647615</v>
+        <v>1.3076432889191088E-2</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" si="9"/>
@@ -5224,7 +5227,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="6"/>
-        <v>0.47416182760309966</v>
+        <v>1.1703586076576667E-2</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="7"/>
@@ -5232,7 +5235,7 @@
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="8"/>
-        <v>0.47419708507409397</v>
+        <v>1.3054143553208717E-2</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="9"/>
@@ -5289,7 +5292,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="6"/>
-        <v>0.4592231906715436</v>
+        <v>1.1334860436895819E-2</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="7"/>
@@ -5297,7 +5300,7 @@
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="8"/>
-        <v>0.45925280382525535</v>
+        <v>1.2477100301331921E-2</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" si="9"/>
@@ -5354,7 +5357,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="6"/>
-        <v>0.43982428643330829</v>
+        <v>1.0856043433234576E-2</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="7"/>
@@ -5362,7 +5365,7 @@
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="8"/>
-        <v>0.43984805554862533</v>
+        <v>1.1779758586747024E-2</v>
       </c>
       <c r="R11" s="3">
         <f t="shared" si="9"/>
@@ -5419,7 +5422,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="6"/>
-        <v>0.42632008217704609</v>
+        <v>1.052272344054817E-2</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="7"/>
@@ -5427,7 +5430,7 @@
       </c>
       <c r="Q12" s="3">
         <f t="shared" si="8"/>
-        <v>0.42634041718762894</v>
+        <v>1.131665007342833E-2</v>
       </c>
       <c r="R12" s="3">
         <f t="shared" si="9"/>
@@ -5484,7 +5487,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="6"/>
-        <v>0.42494634649343199</v>
+        <v>1.0488815958157791E-2</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="7"/>
@@ -5492,7 +5495,7 @@
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="8"/>
-        <v>0.42496635512397513</v>
+        <v>1.1270352676143703E-2</v>
       </c>
       <c r="R13" s="3">
         <f t="shared" si="9"/>
@@ -5549,7 +5552,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="6"/>
-        <v>0.48014684283847153</v>
+        <v>1.1851312310320288E-2</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="7"/>
@@ -5557,7 +5560,7 @@
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="8"/>
-        <v>0.48018483249528648</v>
+        <v>1.3301739519748121E-2</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="9"/>
